--- a/gantt_chart.xlsx
+++ b/gantt_chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D751B7B-36E3-4AB9-B019-1C454B50F09B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F77EF9-C202-FC42-A044-7DC24F1CD00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -38,25 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>Task 5</t>
-  </si>
-  <si>
-    <t>Phase 2 Title</t>
-  </si>
-  <si>
-    <t>Task 1</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -85,9 +67,6 @@
     <t>TASK</t>
   </si>
   <si>
-    <t>Phase 3 Title</t>
-  </si>
-  <si>
     <t>More Project Management Templates</t>
   </si>
   <si>
@@ -119,9 +98,6 @@
   </si>
   <si>
     <t>This template provides a simple way to create a Gantt chart to help visualize and track your project. Simply enter your tasks and start and end dates - no formulas required. The bars in the Gantt chart represent the duration of the task and are displayed using conditional formatting. Insert new tasks by inserting new rows.</t>
-  </si>
-  <si>
-    <t>Phase 4 Title</t>
   </si>
   <si>
     <t>Click on the link below to visit vertex42.com and learn more about how to use this template, such as how to calculate days and work days, create task dependencies, change the colors of the bars, add a scroll bar to make it easier to change the display week, extend the date range displayed in the chart, etc.</t>
@@ -139,9 +115,6 @@
   </si>
   <si>
     <t>Enter Company Name in cell B2.</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>Sample phase title block</t>
@@ -242,6 +215,60 @@
   </si>
   <si>
     <t>Milestone 1: Data ingestion</t>
+  </si>
+  <si>
+    <t>Milestone Planning</t>
+  </si>
+  <si>
+    <t>Dockerization of data ingestion</t>
+  </si>
+  <si>
+    <t>Spark mongodb integration</t>
+  </si>
+  <si>
+    <t>Data cleansing using pyspark</t>
+  </si>
+  <si>
+    <t>Dockerization of data cleansing</t>
+  </si>
+  <si>
+    <t>Milestone 2: Data cleansing</t>
+  </si>
+  <si>
+    <t>Milestone 3: Model Training</t>
+  </si>
+  <si>
+    <t>Milestone report</t>
+  </si>
+  <si>
+    <t>Training Spark ml model</t>
+  </si>
+  <si>
+    <t>Integration with mlflow</t>
+  </si>
+  <si>
+    <t>Milestone 4: Model Prediction</t>
+  </si>
+  <si>
+    <t>Prediction using trained model</t>
+  </si>
+  <si>
+    <t>Fast API Integration</t>
+  </si>
+  <si>
+    <t>UI Integration</t>
+  </si>
+  <si>
+    <t>Milestone Report</t>
+  </si>
+  <si>
+    <t>Training Pre trained Bert(Transformer) model</t>
+  </si>
+  <si>
+    <t>Retraining Model</t>
+  </si>
+  <si>
+    <t>Model saving, loading and deployment</t>
   </si>
 </sst>
 </file>
@@ -894,6 +921,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -901,18 +940,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -923,13 +950,103 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Name" xfId="11" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
     <cellStyle name="Project Start" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
     <cellStyle name="Task" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1056,15 +1173,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="totalRow" dxfId="18"/>
+      <tableStyleElement type="firstColumn" dxfId="17"/>
+      <tableStyleElement type="lastColumn" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="secondRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1479,33 +1596,33 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL36"/>
+  <dimension ref="A1:BL39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V8" sqref="V8"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="135" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5546875" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5" customWidth="1"/>
     <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="63" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>46</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1514,135 +1631,135 @@
       <c r="H1" s="2"/>
       <c r="Z1" s="14"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B2" s="64"/>
       <c r="I2" s="61"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88">
+        <f ca="1">TODAY()-26</f>
+        <v>44467</v>
+      </c>
+      <c r="F3" s="88"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="91">
-        <f ca="1">TODAY()-12</f>
-        <v>44467</v>
-      </c>
-      <c r="F3" s="91"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="85">
         <f ca="1">I5</f>
         <v>44466</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="85">
         <f ca="1">P5</f>
         <v>44473</v>
       </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="85">
         <f ca="1">W5</f>
         <v>44480</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="85">
         <f ca="1">AD5</f>
         <v>44487</v>
       </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="85">
         <f ca="1">AK5</f>
         <v>44494</v>
       </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="85">
         <f ca="1">AR5</f>
         <v>44501</v>
       </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="85">
         <f ca="1">AY5</f>
         <v>44508</v>
       </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="87"/>
+      <c r="BF4" s="85">
         <f ca="1">BF5</f>
         <v>44515</v>
       </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG4" s="86"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="86"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="87"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+        <v>31</v>
+      </c>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44466</v>
@@ -1868,26 +1985,26 @@
         <v>44521</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" ref="I6" ca="1" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
@@ -2114,9 +2231,9 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C7" s="62"/>
       <c r="E7"/>
@@ -2181,12 +2298,12 @@
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="19"/>
@@ -2194,7 +2311,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H33" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H36" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="44"/>
@@ -2254,12 +2371,12 @@
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C9" s="72"/>
       <c r="D9" s="22">
@@ -2335,12 +2452,12 @@
       <c r="BK9" s="44"/>
       <c r="BL9" s="44"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C10" s="72"/>
       <c r="D10" s="22">
@@ -2416,10 +2533,10 @@
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
       <c r="B11" s="80" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C11" s="72"/>
       <c r="D11" s="22">
@@ -2495,10 +2612,10 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
       <c r="B12" s="80" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C12" s="72"/>
       <c r="D12" s="22">
@@ -2574,10 +2691,10 @@
       <c r="BK12" s="44"/>
       <c r="BL12" s="44"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
       <c r="B13" s="80" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C13" s="72"/>
       <c r="D13" s="22">
@@ -2653,12 +2770,12 @@
       <c r="BK13" s="44"/>
       <c r="BL13" s="44"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C14" s="73"/>
       <c r="D14" s="24"/>
@@ -2726,27 +2843,27 @@
       <c r="BK14" s="44"/>
       <c r="BL14" s="44"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59"/>
       <c r="B15" s="81" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C15" s="74"/>
       <c r="D15" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E15" s="67">
-        <f ca="1">E13+1</f>
-        <v>44477</v>
+        <f ca="1">E13+2</f>
+        <v>44478</v>
       </c>
       <c r="F15" s="67">
-        <f ca="1">E15+4</f>
-        <v>44481</v>
+        <f ca="1">E15+1</f>
+        <v>44479</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
@@ -2805,27 +2922,27 @@
       <c r="BK15" s="44"/>
       <c r="BL15" s="44"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
       <c r="B16" s="81" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C16" s="74"/>
       <c r="D16" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="67">
-        <f ca="1">E15+2</f>
+        <f ca="1">F15</f>
         <v>44479</v>
       </c>
       <c r="F16" s="67">
-        <f ca="1">E16+5</f>
-        <v>44484</v>
+        <f ca="1">E16+2</f>
+        <v>44481</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
@@ -2884,20 +3001,22 @@
       <c r="BK16" s="44"/>
       <c r="BL16" s="44"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
       <c r="B17" s="81" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C17" s="74"/>
-      <c r="D17" s="27"/>
+      <c r="D17" s="27">
+        <v>1</v>
+      </c>
       <c r="E17" s="67">
         <f ca="1">F16</f>
-        <v>44484</v>
+        <v>44481</v>
       </c>
       <c r="F17" s="67">
         <f ca="1">E17+3</f>
-        <v>44487</v>
+        <v>44484</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17">
@@ -2961,25 +3080,27 @@
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
       <c r="B18" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="74"/>
+      <c r="D18" s="27">
         <v>1</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="27"/>
       <c r="E18" s="67">
-        <f ca="1">E17</f>
+        <f ca="1">F17</f>
         <v>44484</v>
       </c>
       <c r="F18" s="67">
-        <f ca="1">E18+2</f>
-        <v>44486</v>
+        <f ca="1">E18+1</f>
+        <v>44485</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -3038,25 +3159,27 @@
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
       <c r="B19" s="81" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C19" s="74"/>
-      <c r="D19" s="27"/>
+      <c r="D19" s="27">
+        <v>1</v>
+      </c>
       <c r="E19" s="67">
-        <f ca="1">E18</f>
-        <v>44484</v>
+        <f ca="1">F18</f>
+        <v>44485</v>
       </c>
       <c r="F19" s="67">
-        <f ca="1">E19+3</f>
-        <v>44487</v>
+        <f ca="1">E19+1</f>
+        <v>44486</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
@@ -3115,21 +3238,27 @@
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58"/>
+      <c r="B20" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="74"/>
+      <c r="D20" s="27">
+        <v>1</v>
+      </c>
+      <c r="E20" s="67">
+        <f ca="1">F19</f>
+        <v>44486</v>
+      </c>
+      <c r="F20" s="67">
+        <f ca="1">E20</f>
+        <v>44486</v>
+      </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="H20" s="17">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
@@ -3188,25 +3317,21 @@
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="58"/>
-      <c r="B21" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="68">
-        <f ca="1">E9+15</f>
-        <v>44482</v>
-      </c>
-      <c r="F21" s="68">
-        <f ca="1">E21+5</f>
-        <v>44487</v>
-      </c>
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="75"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+      <c r="H21" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
@@ -3265,25 +3390,27 @@
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
       <c r="B22" s="82" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C22" s="76"/>
-      <c r="D22" s="32"/>
+      <c r="D22" s="32">
+        <v>1</v>
+      </c>
       <c r="E22" s="68">
-        <f ca="1">F21+1</f>
-        <v>44488</v>
+        <f ca="1">F20+1</f>
+        <v>44487</v>
       </c>
       <c r="F22" s="68">
-        <f ca="1">E22+4</f>
-        <v>44492</v>
+        <f ca="1">E22</f>
+        <v>44487</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
@@ -3342,25 +3469,27 @@
       <c r="BK22" s="44"/>
       <c r="BL22" s="44"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58"/>
       <c r="B23" s="82" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C23" s="76"/>
-      <c r="D23" s="32"/>
+      <c r="D23" s="32">
+        <v>1</v>
+      </c>
       <c r="E23" s="68">
-        <f ca="1">E22+5</f>
-        <v>44493</v>
+        <f ca="1">F22</f>
+        <v>44487</v>
       </c>
       <c r="F23" s="68">
-        <f ca="1">E23+5</f>
-        <v>44498</v>
+        <f ca="1">E23+1</f>
+        <v>44488</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
@@ -3419,25 +3548,27 @@
       <c r="BK23" s="44"/>
       <c r="BL23" s="44"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58"/>
       <c r="B24" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="D24" s="32">
         <v>1</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="32"/>
       <c r="E24" s="68">
         <f ca="1">F23+1</f>
-        <v>44499</v>
+        <v>44489</v>
       </c>
       <c r="F24" s="68">
-        <f ca="1">E24+4</f>
-        <v>44503</v>
+        <f ca="1">E24+1</f>
+        <v>44490</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
@@ -3496,25 +3627,27 @@
       <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
       <c r="B25" s="82" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C25" s="76"/>
-      <c r="D25" s="32"/>
+      <c r="D25" s="32">
+        <v>1</v>
+      </c>
       <c r="E25" s="68">
-        <f ca="1">E23</f>
-        <v>44493</v>
+        <f ca="1">F24+1</f>
+        <v>44491</v>
       </c>
       <c r="F25" s="68">
-        <f ca="1">E25+4</f>
-        <v>44497</v>
+        <f ca="1">E25</f>
+        <v>44491</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
@@ -3573,21 +3706,27 @@
       <c r="BK25" s="44"/>
       <c r="BL25" s="44"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="58"/>
+      <c r="B26" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="76"/>
+      <c r="D26" s="32">
+        <v>1</v>
+      </c>
+      <c r="E26" s="68">
+        <f ca="1">E25</f>
+        <v>44491</v>
+      </c>
+      <c r="F26" s="68">
+        <f ca="1">E25</f>
+        <v>44491</v>
+      </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="H26" s="17">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
@@ -3646,23 +3785,27 @@
       <c r="BK26" s="44"/>
       <c r="BL26" s="44"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
-      <c r="B27" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="69" t="s">
-        <v>32</v>
+      <c r="B27" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="76"/>
+      <c r="D27" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="E27" s="68">
+        <f ca="1">F26+1</f>
+        <v>44492</v>
+      </c>
+      <c r="F27" s="68">
+        <f ca="1">E27+1</f>
+        <v>44493</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="H27" s="17">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
@@ -3721,23 +3864,27 @@
       <c r="BK27" s="44"/>
       <c r="BL27" s="44"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="58"/>
-      <c r="B28" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="69" t="s">
-        <v>32</v>
+      <c r="B28" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="76"/>
+      <c r="D28" s="32">
+        <v>1</v>
+      </c>
+      <c r="E28" s="68">
+        <f ca="1">F27</f>
+        <v>44493</v>
+      </c>
+      <c r="F28" s="68">
+        <f ca="1">E28</f>
+        <v>44493</v>
       </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="H28" s="17">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
@@ -3796,23 +3943,21 @@
       <c r="BK28" s="44"/>
       <c r="BL28" s="44"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="58"/>
-      <c r="B29" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="69" t="s">
-        <v>32</v>
-      </c>
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="77"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="17" t="e">
+      <c r="H29" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
@@ -3871,23 +4016,27 @@
       <c r="BK29" s="44"/>
       <c r="BL29" s="44"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="58"/>
       <c r="B30" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="78"/>
+      <c r="D30" s="37">
         <v>1</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="69" t="s">
-        <v>32</v>
+      <c r="E30" s="69">
+        <f ca="1">F28+1</f>
+        <v>44494</v>
+      </c>
+      <c r="F30" s="69">
+        <f ca="1">E30</f>
+        <v>44494</v>
       </c>
       <c r="G30" s="17"/>
-      <c r="H30" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="H30" s="17">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
@@ -3946,23 +4095,27 @@
       <c r="BK30" s="44"/>
       <c r="BL30" s="44"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="58"/>
       <c r="B31" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="78"/>
+      <c r="D31" s="37">
+        <v>1</v>
+      </c>
+      <c r="E31" s="69">
+        <f ca="1">F30+1</f>
+        <v>44495</v>
+      </c>
+      <c r="F31" s="69">
+        <f ca="1">E31+1</f>
+        <v>44496</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17">
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
-      </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
       </c>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
@@ -4021,19 +4174,27 @@
       <c r="BK31" s="44"/>
       <c r="BL31" s="44"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="58"/>
+      <c r="B32" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="78"/>
+      <c r="D32" s="37">
+        <v>1</v>
+      </c>
+      <c r="E32" s="69">
+        <f ca="1">F31</f>
+        <v>44496</v>
+      </c>
+      <c r="F32" s="69">
+        <f ca="1">E32+1</f>
+        <v>44497</v>
+      </c>
       <c r="G32" s="17"/>
-      <c r="H32" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="H32" s="17">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
@@ -4092,91 +4253,325 @@
       <c r="BK32" s="44"/>
       <c r="BL32" s="44"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43" t="str">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="58"/>
+      <c r="B33" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="78"/>
+      <c r="D33" s="37">
+        <v>1</v>
+      </c>
+      <c r="E33" s="69">
+        <f ca="1">F32</f>
+        <v>44497</v>
+      </c>
+      <c r="F33" s="69">
+        <f ca="1">E33+1</f>
+        <v>44498</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="44"/>
+      <c r="AE33" s="44"/>
+      <c r="AF33" s="44"/>
+      <c r="AG33" s="44"/>
+      <c r="AH33" s="44"/>
+      <c r="AI33" s="44"/>
+      <c r="AJ33" s="44"/>
+      <c r="AK33" s="44"/>
+      <c r="AL33" s="44"/>
+      <c r="AM33" s="44"/>
+      <c r="AN33" s="44"/>
+      <c r="AO33" s="44"/>
+      <c r="AP33" s="44"/>
+      <c r="AQ33" s="44"/>
+      <c r="AR33" s="44"/>
+      <c r="AS33" s="44"/>
+      <c r="AT33" s="44"/>
+      <c r="AU33" s="44"/>
+      <c r="AV33" s="44"/>
+      <c r="AW33" s="44"/>
+      <c r="AX33" s="44"/>
+      <c r="AY33" s="44"/>
+      <c r="AZ33" s="44"/>
+      <c r="BA33" s="44"/>
+      <c r="BB33" s="44"/>
+      <c r="BC33" s="44"/>
+      <c r="BD33" s="44"/>
+      <c r="BE33" s="44"/>
+      <c r="BF33" s="44"/>
+      <c r="BG33" s="44"/>
+      <c r="BH33" s="44"/>
+      <c r="BI33" s="44"/>
+      <c r="BJ33" s="44"/>
+      <c r="BK33" s="44"/>
+      <c r="BL33" s="44"/>
+    </row>
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="58"/>
+      <c r="B34" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="78"/>
+      <c r="D34" s="37">
+        <v>1</v>
+      </c>
+      <c r="E34" s="69">
+        <f ca="1">F33+1</f>
+        <v>44499</v>
+      </c>
+      <c r="F34" s="69">
+        <f ca="1">E34</f>
+        <v>44499</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="44"/>
+      <c r="Z34" s="44"/>
+      <c r="AA34" s="44"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="44"/>
+      <c r="AG34" s="44"/>
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="44"/>
+      <c r="AJ34" s="44"/>
+      <c r="AK34" s="44"/>
+      <c r="AL34" s="44"/>
+      <c r="AM34" s="44"/>
+      <c r="AN34" s="44"/>
+      <c r="AO34" s="44"/>
+      <c r="AP34" s="44"/>
+      <c r="AQ34" s="44"/>
+      <c r="AR34" s="44"/>
+      <c r="AS34" s="44"/>
+      <c r="AT34" s="44"/>
+      <c r="AU34" s="44"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
+      <c r="BB34" s="44"/>
+      <c r="BC34" s="44"/>
+      <c r="BD34" s="44"/>
+      <c r="BE34" s="44"/>
+      <c r="BF34" s="44"/>
+      <c r="BG34" s="44"/>
+      <c r="BH34" s="44"/>
+      <c r="BI34" s="44"/>
+      <c r="BJ34" s="44"/>
+      <c r="BK34" s="44"/>
+      <c r="BL34" s="44"/>
+    </row>
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="84"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="46"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="46"/>
-      <c r="AE33" s="46"/>
-      <c r="AF33" s="46"/>
-      <c r="AG33" s="46"/>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="46"/>
-      <c r="AJ33" s="46"/>
-      <c r="AK33" s="46"/>
-      <c r="AL33" s="46"/>
-      <c r="AM33" s="46"/>
-      <c r="AN33" s="46"/>
-      <c r="AO33" s="46"/>
-      <c r="AP33" s="46"/>
-      <c r="AQ33" s="46"/>
-      <c r="AR33" s="46"/>
-      <c r="AS33" s="46"/>
-      <c r="AT33" s="46"/>
-      <c r="AU33" s="46"/>
-      <c r="AV33" s="46"/>
-      <c r="AW33" s="46"/>
-      <c r="AX33" s="46"/>
-      <c r="AY33" s="46"/>
-      <c r="AZ33" s="46"/>
-      <c r="BA33" s="46"/>
-      <c r="BB33" s="46"/>
-      <c r="BC33" s="46"/>
-      <c r="BD33" s="46"/>
-      <c r="BE33" s="46"/>
-      <c r="BF33" s="46"/>
-      <c r="BG33" s="46"/>
-      <c r="BH33" s="46"/>
-      <c r="BI33" s="46"/>
-      <c r="BJ33" s="46"/>
-      <c r="BK33" s="46"/>
-      <c r="BL33" s="46"/>
-    </row>
-    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="14"/>
-      <c r="F35" s="60"/>
-    </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="15"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="44"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="44"/>
+      <c r="AG35" s="44"/>
+      <c r="AH35" s="44"/>
+      <c r="AI35" s="44"/>
+      <c r="AJ35" s="44"/>
+      <c r="AK35" s="44"/>
+      <c r="AL35" s="44"/>
+      <c r="AM35" s="44"/>
+      <c r="AN35" s="44"/>
+      <c r="AO35" s="44"/>
+      <c r="AP35" s="44"/>
+      <c r="AQ35" s="44"/>
+      <c r="AR35" s="44"/>
+      <c r="AS35" s="44"/>
+      <c r="AT35" s="44"/>
+      <c r="AU35" s="44"/>
+      <c r="AV35" s="44"/>
+      <c r="AW35" s="44"/>
+      <c r="AX35" s="44"/>
+      <c r="AY35" s="44"/>
+      <c r="AZ35" s="44"/>
+      <c r="BA35" s="44"/>
+      <c r="BB35" s="44"/>
+      <c r="BC35" s="44"/>
+      <c r="BD35" s="44"/>
+      <c r="BE35" s="44"/>
+      <c r="BF35" s="44"/>
+      <c r="BG35" s="44"/>
+      <c r="BH35" s="44"/>
+      <c r="BI35" s="44"/>
+      <c r="BJ35" s="44"/>
+      <c r="BK35" s="44"/>
+      <c r="BL35" s="44"/>
+    </row>
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="46"/>
+      <c r="AB36" s="46"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="46"/>
+      <c r="AE36" s="46"/>
+      <c r="AF36" s="46"/>
+      <c r="AG36" s="46"/>
+      <c r="AH36" s="46"/>
+      <c r="AI36" s="46"/>
+      <c r="AJ36" s="46"/>
+      <c r="AK36" s="46"/>
+      <c r="AL36" s="46"/>
+      <c r="AM36" s="46"/>
+      <c r="AN36" s="46"/>
+      <c r="AO36" s="46"/>
+      <c r="AP36" s="46"/>
+      <c r="AQ36" s="46"/>
+      <c r="AR36" s="46"/>
+      <c r="AS36" s="46"/>
+      <c r="AT36" s="46"/>
+      <c r="AU36" s="46"/>
+      <c r="AV36" s="46"/>
+      <c r="AW36" s="46"/>
+      <c r="AX36" s="46"/>
+      <c r="AY36" s="46"/>
+      <c r="AZ36" s="46"/>
+      <c r="BA36" s="46"/>
+      <c r="BB36" s="46"/>
+      <c r="BC36" s="46"/>
+      <c r="BD36" s="46"/>
+      <c r="BE36" s="46"/>
+      <c r="BF36" s="46"/>
+      <c r="BG36" s="46"/>
+      <c r="BH36" s="46"/>
+      <c r="BI36" s="46"/>
+      <c r="BJ36" s="46"/>
+      <c r="BK36" s="46"/>
+      <c r="BL36" s="46"/>
+    </row>
+    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="14"/>
+      <c r="F38" s="60"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4184,14 +4579,9 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D33">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="D7:D24 D27:D36">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4204,16 +4594,83 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL33">
-    <cfRule type="expression" dxfId="2" priority="33">
+  <conditionalFormatting sqref="I5:BL18 I20:BL24 I27:BL36">
+    <cfRule type="expression" dxfId="11" priority="45">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL33">
-    <cfRule type="expression" dxfId="1" priority="27">
+  <conditionalFormatting sqref="I7:BL18 I20:BL24 I27:BL36">
+    <cfRule type="expression" dxfId="10" priority="39">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="40" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2E9CD2AF-B6A2-8940-85F3-05CB5F8C21D7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:BL19">
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:BL19">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:BL25">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:BL25">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{34717303-E8C5-2E44-8B0B-6E8DC1E241B1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:BL26">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:BL26">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4228,9 +4685,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="F18 F22:F23 E23" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4247,7 +4701,37 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D33</xm:sqref>
+          <xm:sqref>D7:D24 D27:D36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2E9CD2AF-B6A2-8940-85F3-05CB5F8C21D7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{34717303-E8C5-2E44-8B0B-6E8DC1E241B1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4261,88 +4745,88 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.109375" style="48" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="87.1640625" style="48" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="49"/>
+    </row>
+    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="55"/>
+    </row>
+    <row r="4" spans="1:2" s="51" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="48" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="51" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="48" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="49"/>
-    </row>
-    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="55"/>
-    </row>
-    <row r="4" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A4" s="52" t="s">
+    </row>
+    <row r="11" spans="1:2" s="51" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="53" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="48" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A8" s="52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="48" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="51" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/gantt_chart.xlsx
+++ b/gantt_chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F77EF9-C202-FC42-A044-7DC24F1CD00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B55969A-2EC1-3449-A70E-4BE4C7DE1771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -250,15 +250,6 @@
     <t>Milestone 4: Model Prediction</t>
   </si>
   <si>
-    <t>Prediction using trained model</t>
-  </si>
-  <si>
-    <t>Fast API Integration</t>
-  </si>
-  <si>
-    <t>UI Integration</t>
-  </si>
-  <si>
     <t>Milestone Report</t>
   </si>
   <si>
@@ -269,6 +260,15 @@
   </si>
   <si>
     <t>Model saving, loading and deployment</t>
+  </si>
+  <si>
+    <t>UI Development and Integration</t>
+  </si>
+  <si>
+    <t>Fast API Development and Integration</t>
+  </si>
+  <si>
+    <t>Prediction using trained Bert model</t>
   </si>
 </sst>
 </file>
@@ -921,6 +921,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -933,13 +940,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1599,8 +1599,8 @@
   <dimension ref="A1:BL39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="135" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1645,15 +1645,15 @@
       <c r="B3" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88">
-        <f ca="1">TODAY()-26</f>
+      <c r="D3" s="86"/>
+      <c r="E3" s="91">
+        <f ca="1">TODAY()-30</f>
         <v>44467</v>
       </c>
-      <c r="F3" s="88"/>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="59" t="s">
@@ -1662,104 +1662,104 @@
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="88">
         <f ca="1">I5</f>
         <v>44466</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="85">
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="88">
         <f ca="1">P5</f>
         <v>44473</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="85">
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="88">
         <f ca="1">W5</f>
         <v>44480</v>
       </c>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="85">
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="88">
         <f ca="1">AD5</f>
         <v>44487</v>
       </c>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="85">
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="88">
         <f ca="1">AK5</f>
         <v>44494</v>
       </c>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="85">
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="88">
         <f ca="1">AR5</f>
         <v>44501</v>
       </c>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="85">
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="88">
         <f ca="1">AY5</f>
         <v>44508</v>
       </c>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
-      <c r="BC4" s="86"/>
-      <c r="BD4" s="86"/>
-      <c r="BE4" s="87"/>
-      <c r="BF4" s="85">
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="88">
         <f ca="1">BF5</f>
         <v>44515</v>
       </c>
-      <c r="BG4" s="86"/>
-      <c r="BH4" s="86"/>
-      <c r="BI4" s="86"/>
-      <c r="BJ4" s="86"/>
-      <c r="BK4" s="86"/>
-      <c r="BL4" s="87"/>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="90"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44466</v>
@@ -3551,7 +3551,7 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58"/>
       <c r="B24" s="82" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24" s="76"/>
       <c r="D24" s="32">
@@ -3630,7 +3630,7 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
       <c r="B25" s="82" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C25" s="76"/>
       <c r="D25" s="32">
@@ -3709,7 +3709,7 @@
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="58"/>
       <c r="B26" s="82" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26" s="76"/>
       <c r="D26" s="32">
@@ -4098,19 +4098,19 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="58"/>
       <c r="B31" s="83" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="37">
         <v>1</v>
       </c>
       <c r="E31" s="69">
-        <f ca="1">F30+1</f>
-        <v>44495</v>
+        <f ca="1">F30</f>
+        <v>44494</v>
       </c>
       <c r="F31" s="69">
         <f ca="1">E31+1</f>
-        <v>44496</v>
+        <v>44495</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17">
@@ -4177,7 +4177,7 @@
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="58"/>
       <c r="B32" s="83" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="37">
@@ -4185,11 +4185,11 @@
       </c>
       <c r="E32" s="69">
         <f ca="1">F31</f>
-        <v>44496</v>
+        <v>44495</v>
       </c>
       <c r="F32" s="69">
         <f ca="1">E32+1</f>
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17">
@@ -4256,7 +4256,7 @@
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="58"/>
       <c r="B33" s="83" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="37">
@@ -4264,11 +4264,11 @@
       </c>
       <c r="E33" s="69">
         <f ca="1">F32</f>
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="F33" s="69">
         <f ca="1">E33+1</f>
-        <v>44498</v>
+        <v>44497</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17">
@@ -4335,7 +4335,7 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="58"/>
       <c r="B34" s="83" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="37">
@@ -4343,11 +4343,11 @@
       </c>
       <c r="E34" s="69">
         <f ca="1">F33+1</f>
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="F34" s="69">
         <f ca="1">E34</f>
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17">
@@ -4567,11 +4567,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4579,6 +4574,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D24 D27:D36">
     <cfRule type="dataBar" priority="26">
